--- a/opti/suiviOptiPhilo.xlsx
+++ b/opti/suiviOptiPhilo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henri/Desktop/42/encours/philosophers/opti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9E24CE-1CCA-284B-9BA3-D9B01265885B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3CDC4D-378E-424A-B387-7DCF212DD158}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{5E865D43-CC16-D943-A78B-B239CF5616FB}"/>
   </bookViews>
@@ -593,7 +593,7 @@
   <dimension ref="B3:M27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
